--- a/12/12.xlsx
+++ b/12/12.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,7 +11,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -27,8 +27,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,24 +75,12 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -3191,56 +3179,42 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="294554432"/>
-        <c:axId val="294553856"/>
+        <c:dLbls/>
+        <c:axId val="165576704"/>
+        <c:axId val="165578240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="294554432"/>
+        <c:axId val="165576704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="294553856"/>
+        <c:crossAx val="165578240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294553856"/>
+        <c:axId val="165578240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="294554432"/>
+        <c:crossAx val="165576704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3252,14 +3226,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3281,15 +3255,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>331810</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>94215</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>592957</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3306,8 +3280,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2438400" y="7239000"/>
-          <a:ext cx="12523810" cy="8285715"/>
+          <a:off x="2447925" y="4057650"/>
+          <a:ext cx="10337032" cy="6838949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3394,7 +3368,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3429,7 +3402,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -3605,16 +3577,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:C513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -3622,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -3630,7 +3602,7 @@
         <v>-3.8733523545739501E-2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3">
       <c r="B3">
         <v>2</v>
       </c>
@@ -3638,7 +3610,7 @@
         <v>0.1032748517079</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3">
       <c r="B4">
         <v>3</v>
       </c>
@@ -3646,7 +3618,7 @@
         <v>4.0099314811817999E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3">
       <c r="B5">
         <v>4</v>
       </c>
@@ -3654,7 +3626,7 @@
         <v>0.109329273815819</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3">
       <c r="B6">
         <v>5</v>
       </c>
@@ -3662,7 +3634,7 @@
         <v>0.220301260075732</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3">
       <c r="B7">
         <v>6</v>
       </c>
@@ -3670,7 +3642,7 @@
         <v>0.22392405486254699</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3">
       <c r="B8">
         <v>7</v>
       </c>
@@ -3678,7 +3650,7 @@
         <v>0.300633849816551</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:3">
       <c r="B9">
         <v>8</v>
       </c>
@@ -3686,7 +3658,7 @@
         <v>0.36070925847640101</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3">
       <c r="B10">
         <v>9</v>
       </c>
@@ -3694,7 +3666,7 @@
         <v>0.43674333296845103</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:3">
       <c r="B11">
         <v>10</v>
       </c>
@@ -3702,7 +3674,7 @@
         <v>0.36145796077409398</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:3">
       <c r="B12">
         <v>11</v>
       </c>
@@ -3710,7 +3682,7 @@
         <v>0.39352635347678599</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:3">
       <c r="B13">
         <v>12</v>
       </c>
@@ -3718,7 +3690,7 @@
         <v>0.37106679722195102</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:3">
       <c r="B14">
         <v>13</v>
       </c>
@@ -3726,7 +3698,7 @@
         <v>0.4627248301702</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3">
       <c r="B15">
         <v>14</v>
       </c>
@@ -3734,7 +3706,7 @@
         <v>0.52619119349695898</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3">
       <c r="B16">
         <v>15</v>
       </c>
@@ -3742,7 +3714,7 @@
         <v>0.49018965286161997</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3">
       <c r="B17">
         <v>16</v>
       </c>
@@ -3750,7 +3722,7 @@
         <v>0.60271577043389302</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3">
       <c r="B18">
         <v>17</v>
       </c>
@@ -3758,7 +3730,7 @@
         <v>0.59491364893654397</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3">
       <c r="B19">
         <v>18</v>
       </c>
@@ -3766,7 +3738,7 @@
         <v>0.60684866336221199</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3">
       <c r="B20">
         <v>19</v>
       </c>
@@ -3774,7 +3746,7 @@
         <v>0.73065028010571598</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3">
       <c r="B21">
         <v>20</v>
       </c>
@@ -3782,7 +3754,7 @@
         <v>0.71431055955278799</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3">
       <c r="B22">
         <v>21</v>
       </c>
@@ -3790,7 +3762,7 @@
         <v>0.69543075591416503</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3">
       <c r="B23">
         <v>22</v>
       </c>
@@ -3798,7 +3770,7 @@
         <v>0.72924625994853098</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:3">
       <c r="B24">
         <v>23</v>
       </c>
@@ -3806,7 +3778,7 @@
         <v>0.79003722585971803</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:3">
       <c r="B25">
         <v>24</v>
       </c>
@@ -3814,7 +3786,7 @@
         <v>0.87513377755798505</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3">
       <c r="B26">
         <v>25</v>
       </c>
@@ -3822,7 +3794,7 @@
         <v>0.91430647466901105</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:3">
       <c r="B27">
         <v>26</v>
       </c>
@@ -3830,7 +3802,7 @@
         <v>0.78699639757328699</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:3">
       <c r="B28">
         <v>27</v>
       </c>
@@ -3838,7 +3810,7 @@
         <v>0.85925864821049502</v>
       </c>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:3">
       <c r="B29">
         <v>28</v>
       </c>
@@ -3846,7 +3818,7 @@
         <v>0.92599075242456996</v>
       </c>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:3">
       <c r="B30">
         <v>29</v>
       </c>
@@ -3854,7 +3826,7 @@
         <v>0.89320894054625999</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:3">
       <c r="B31">
         <v>30</v>
       </c>
@@ -3862,7 +3834,7 @@
         <v>0.97196925711958904</v>
       </c>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:3">
       <c r="B32">
         <v>31</v>
       </c>
@@ -3870,7 +3842,7 @@
         <v>0.91751963228848199</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:3">
       <c r="B33">
         <v>32</v>
       </c>
@@ -3878,7 +3850,7 @@
         <v>1.0010230267056699</v>
       </c>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:3">
       <c r="B34">
         <v>33</v>
       </c>
@@ -3886,7 +3858,7 @@
         <v>0.89765911060060899</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:3">
       <c r="B35">
         <v>34</v>
       </c>
@@ -3894,7 +3866,7 @@
         <v>1.0206326584157399</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:3">
       <c r="B36">
         <v>35</v>
       </c>
@@ -3902,7 +3874,7 @@
         <v>1.08067415476123</v>
       </c>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:3">
       <c r="B37">
         <v>36</v>
       </c>
@@ -3910,7 +3882,7 @@
         <v>1.0511031950420899</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:3">
       <c r="B38">
         <v>37</v>
       </c>
@@ -3918,7 +3890,7 @@
         <v>0.90885447593883895</v>
       </c>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:3">
       <c r="B39">
         <v>38</v>
       </c>
@@ -3926,7 +3898,7 @@
         <v>1.01799720917063</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:3">
       <c r="B40">
         <v>39</v>
       </c>
@@ -3934,7 +3906,7 @@
         <v>0.948268198918651</v>
       </c>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:3">
       <c r="B41">
         <v>40</v>
       </c>
@@ -3942,7 +3914,7 @@
         <v>1.0173015506752501</v>
       </c>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:3">
       <c r="B42">
         <v>41</v>
       </c>
@@ -3950,7 +3922,7 @@
         <v>0.93071638156922598</v>
       </c>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:3">
       <c r="B43">
         <v>42</v>
       </c>
@@ -3958,7 +3930,7 @@
         <v>0.92024328351630302</v>
       </c>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:3">
       <c r="B44">
         <v>43</v>
       </c>
@@ -3966,7 +3938,7 @@
         <v>0.88175837733082596</v>
       </c>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:3">
       <c r="B45">
         <v>44</v>
       </c>
@@ -3974,7 +3946,7 @@
         <v>0.95647879182332296</v>
       </c>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:3">
       <c r="B46">
         <v>45</v>
       </c>
@@ -3982,7 +3954,7 @@
         <v>0.85320785715193304</v>
       </c>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:3">
       <c r="B47">
         <v>46</v>
       </c>
@@ -3990,7 +3962,7 @@
         <v>0.96912932218384196</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:3">
       <c r="B48">
         <v>47</v>
       </c>
@@ -3998,7 +3970,7 @@
         <v>0.86973225226205098</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:3">
       <c r="B49">
         <v>48</v>
       </c>
@@ -4006,7 +3978,7 @@
         <v>0.87364187642194602</v>
       </c>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:3">
       <c r="B50">
         <v>49</v>
       </c>
@@ -4014,7 +3986,7 @@
         <v>0.87511267409158799</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:3">
       <c r="B51">
         <v>50</v>
       </c>
@@ -4022,7 +3994,7 @@
         <v>0.80920350372851002</v>
       </c>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:3">
       <c r="B52">
         <v>51</v>
       </c>
@@ -4030,7 +4002,7 @@
         <v>0.86708896033153104</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:3">
       <c r="B53">
         <v>52</v>
       </c>
@@ -4038,7 +4010,7 @@
         <v>0.85570498941962003</v>
       </c>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:3">
       <c r="B54">
         <v>53</v>
       </c>
@@ -4046,7 +4018,7 @@
         <v>0.76219630388666004</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:3">
       <c r="B55">
         <v>54</v>
       </c>
@@ -4054,7 +4026,7 @@
         <v>0.83709925908442095</v>
       </c>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:3">
       <c r="B56">
         <v>55</v>
       </c>
@@ -4062,7 +4034,7 @@
         <v>0.70624793003207198</v>
       </c>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:3">
       <c r="B57">
         <v>56</v>
       </c>
@@ -4070,7 +4042,7 @@
         <v>0.77837856102917502</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:3">
       <c r="B58">
         <v>57</v>
       </c>
@@ -4078,7 +4050,7 @@
         <v>0.66253896093618303</v>
       </c>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:3">
       <c r="B59">
         <v>58</v>
       </c>
@@ -4086,7 +4058,7 @@
         <v>0.61814715831241396</v>
       </c>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:3">
       <c r="B60">
         <v>59</v>
       </c>
@@ -4094,7 +4066,7 @@
         <v>0.50259826455693501</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:3">
       <c r="B61">
         <v>60</v>
       </c>
@@ -4102,7 +4074,7 @@
         <v>0.49039934199247698</v>
       </c>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:3">
       <c r="B62">
         <v>61</v>
       </c>
@@ -4110,7 +4082,7 @@
         <v>0.50594443697995695</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:3">
       <c r="B63">
         <v>62</v>
       </c>
@@ -4118,7 +4090,7 @@
         <v>0.48679430122329498</v>
       </c>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:3">
       <c r="B64">
         <v>63</v>
       </c>
@@ -4126,7 +4098,7 @@
         <v>0.35722276971321598</v>
       </c>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3">
       <c r="B65">
         <v>64</v>
       </c>
@@ -4134,7 +4106,7 @@
         <v>0.470656184250001</v>
       </c>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3">
       <c r="B66">
         <v>65</v>
       </c>
@@ -4142,7 +4114,7 @@
         <v>0.29426438449271503</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3">
       <c r="B67">
         <v>66</v>
       </c>
@@ -4150,7 +4122,7 @@
         <v>0.35369741215765499</v>
       </c>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:3">
       <c r="B68">
         <v>67</v>
       </c>
@@ -4158,7 +4130,7 @@
         <v>0.367344342131185</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:3">
       <c r="B69">
         <v>68</v>
       </c>
@@ -4166,7 +4138,7 @@
         <v>0.35406932362322802</v>
       </c>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:3">
       <c r="B70">
         <v>69</v>
       </c>
@@ -4174,7 +4146,7 @@
         <v>0.12961840981705</v>
       </c>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:3">
       <c r="B71">
         <v>70</v>
       </c>
@@ -4182,7 +4154,7 @@
         <v>0.217347807311109</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:3">
       <c r="B72">
         <v>71</v>
       </c>
@@ -4190,7 +4162,7 @@
         <v>0.17991402105214099</v>
       </c>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:3">
       <c r="B73">
         <v>72</v>
       </c>
@@ -4198,7 +4170,7 @@
         <v>8.2694589642519994E-2</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3">
       <c r="B74">
         <v>73</v>
       </c>
@@ -4206,7 +4178,7 @@
         <v>0.132435912353667</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3">
       <c r="B75">
         <v>74</v>
       </c>
@@ -4214,7 +4186,7 @@
         <v>-8.3872202911104504E-2</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3">
       <c r="B76">
         <v>75</v>
       </c>
@@ -4222,7 +4194,7 @@
         <v>-5.47759218801908E-2</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3">
       <c r="B77">
         <v>76</v>
       </c>
@@ -4230,7 +4202,7 @@
         <v>-0.16032096454256201</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:3">
       <c r="B78">
         <v>77</v>
       </c>
@@ -4238,7 +4210,7 @@
         <v>-2.9995262485709301E-2</v>
       </c>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:3">
       <c r="B79">
         <v>78</v>
       </c>
@@ -4246,7 +4218,7 @@
         <v>-0.19570698226994501</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:3">
       <c r="B80">
         <v>79</v>
       </c>
@@ -4254,7 +4226,7 @@
         <v>-0.25702129888158098</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:3">
       <c r="B81">
         <v>80</v>
       </c>
@@ -4262,7 +4234,7 @@
         <v>-0.26932976843877598</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:3">
       <c r="B82">
         <v>81</v>
       </c>
@@ -4270,7 +4242,7 @@
         <v>-0.37155577406787199</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:3">
       <c r="B83">
         <v>82</v>
       </c>
@@ -4278,7 +4250,7 @@
         <v>-0.41001789830658902</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:3">
       <c r="B84">
         <v>83</v>
       </c>
@@ -4286,7 +4258,7 @@
         <v>-0.37537071476177097</v>
       </c>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:3">
       <c r="B85">
         <v>84</v>
       </c>
@@ -4294,7 +4266,7 @@
         <v>-0.36775875888308202</v>
       </c>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:3">
       <c r="B86">
         <v>85</v>
       </c>
@@ -4302,7 +4274,7 @@
         <v>-0.50345314911397698</v>
       </c>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:3">
       <c r="B87">
         <v>86</v>
       </c>
@@ -4310,7 +4282,7 @@
         <v>-0.44751253453233297</v>
       </c>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:3">
       <c r="B88">
         <v>87</v>
       </c>
@@ -4318,7 +4290,7 @@
         <v>-0.49862446473313399</v>
       </c>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:3">
       <c r="B89">
         <v>88</v>
       </c>
@@ -4326,7 +4298,7 @@
         <v>-0.62647534280706496</v>
       </c>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:3">
       <c r="B90">
         <v>89</v>
       </c>
@@ -4334,7 +4306,7 @@
         <v>-0.68163201091937897</v>
       </c>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:3">
       <c r="B91">
         <v>90</v>
       </c>
@@ -4342,7 +4314,7 @@
         <v>-0.55476420324796605</v>
       </c>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:3">
       <c r="B92">
         <v>91</v>
       </c>
@@ -4350,7 +4322,7 @@
         <v>-0.62695085535348904</v>
       </c>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:3">
       <c r="B93">
         <v>92</v>
       </c>
@@ -4358,7 +4330,7 @@
         <v>-0.62522686984697595</v>
       </c>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:3">
       <c r="B94">
         <v>93</v>
       </c>
@@ -4366,7 +4338,7 @@
         <v>-0.80210178270856203</v>
       </c>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:3">
       <c r="B95">
         <v>94</v>
       </c>
@@ -4374,7 +4346,7 @@
         <v>-0.80376007310783704</v>
       </c>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:3">
       <c r="B96">
         <v>95</v>
       </c>
@@ -4382,7 +4354,7 @@
         <v>-0.76555205173886798</v>
       </c>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:3">
       <c r="B97">
         <v>96</v>
       </c>
@@ -4390,7 +4362,7 @@
         <v>-0.81616025879047904</v>
       </c>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:3">
       <c r="B98">
         <v>97</v>
       </c>
@@ -4398,7 +4370,7 @@
         <v>-0.92942798458645703</v>
       </c>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:3">
       <c r="B99">
         <v>98</v>
       </c>
@@ -4406,7 +4378,7 @@
         <v>-0.84246637594128704</v>
       </c>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:3">
       <c r="B100">
         <v>99</v>
       </c>
@@ -4414,7 +4386,7 @@
         <v>-0.79070286642371201</v>
       </c>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:3">
       <c r="B101">
         <v>100</v>
       </c>
@@ -4422,7 +4394,7 @@
         <v>-0.91585551138081001</v>
       </c>
     </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:3">
       <c r="B102">
         <v>101</v>
       </c>
@@ -4430,7 +4402,7 @@
         <v>-0.940687334681099</v>
       </c>
     </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:3">
       <c r="B103">
         <v>102</v>
       </c>
@@ -4438,7 +4410,7 @@
         <v>-0.908786215683413</v>
       </c>
     </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:3">
       <c r="B104">
         <v>103</v>
       </c>
@@ -4446,7 +4418,7 @@
         <v>-1.02707652465244</v>
       </c>
     </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:3">
       <c r="B105">
         <v>104</v>
       </c>
@@ -4454,7 +4426,7 @@
         <v>-0.93740350066176203</v>
       </c>
     </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:3">
       <c r="B106">
         <v>105</v>
       </c>
@@ -4462,7 +4434,7 @@
         <v>-1.05593825770669</v>
       </c>
     </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:3">
       <c r="B107">
         <v>106</v>
       </c>
@@ -4470,7 +4442,7 @@
         <v>-0.97465244601666201</v>
       </c>
     </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:3">
       <c r="B108">
         <v>107</v>
       </c>
@@ -4478,7 +4450,7 @@
         <v>-1.0076516349715401</v>
       </c>
     </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:3">
       <c r="B109">
         <v>108</v>
       </c>
@@ -4486,7 +4458,7 @@
         <v>-0.92443369925723795</v>
       </c>
     </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:3">
       <c r="B110">
         <v>109</v>
       </c>
@@ -4494,7 +4466,7 @@
         <v>-0.93655136590578603</v>
       </c>
     </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:3">
       <c r="B111">
         <v>110</v>
       </c>
@@ -4502,7 +4474,7 @@
         <v>-0.91722051649873104</v>
       </c>
     </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:3">
       <c r="B112">
         <v>111</v>
       </c>
@@ -4510,7 +4482,7 @@
         <v>-0.92241958404760005</v>
       </c>
     </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:3">
       <c r="B113">
         <v>112</v>
       </c>
@@ -4518,7 +4490,7 @@
         <v>-1.0939008647690001</v>
       </c>
     </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:3">
       <c r="B114">
         <v>113</v>
       </c>
@@ -4526,7 +4498,7 @@
         <v>-0.95994628821449002</v>
       </c>
     </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:3">
       <c r="B115">
         <v>114</v>
       </c>
@@ -4534,7 +4506,7 @@
         <v>-0.94711084999978101</v>
       </c>
     </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:3">
       <c r="B116">
         <v>115</v>
       </c>
@@ -4542,7 +4514,7 @@
         <v>-0.96768105642114399</v>
       </c>
     </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:3">
       <c r="B117">
         <v>116</v>
       </c>
@@ -4550,7 +4522,7 @@
         <v>-0.89833817573864505</v>
       </c>
     </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:3">
       <c r="B118">
         <v>117</v>
       </c>
@@ -4558,7 +4530,7 @@
         <v>-0.91735361302513696</v>
       </c>
     </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:3">
       <c r="B119">
         <v>118</v>
       </c>
@@ -4566,7 +4538,7 @@
         <v>-0.85964885282619896</v>
       </c>
     </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:3">
       <c r="B120">
         <v>119</v>
       </c>
@@ -4574,7 +4546,7 @@
         <v>-0.96449633174134597</v>
       </c>
     </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:3">
       <c r="B121">
         <v>120</v>
       </c>
@@ -4582,7 +4554,7 @@
         <v>-0.95183712253462704</v>
       </c>
     </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:3">
       <c r="B122">
         <v>121</v>
       </c>
@@ -4590,7 +4562,7 @@
         <v>-0.94769161662014301</v>
       </c>
     </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:3">
       <c r="B123">
         <v>122</v>
       </c>
@@ -4598,7 +4570,7 @@
         <v>-0.92431585720563803</v>
       </c>
     </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:3">
       <c r="B124">
         <v>123</v>
       </c>
@@ -4606,7 +4578,7 @@
         <v>-0.894007764380086</v>
       </c>
     </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:3">
       <c r="B125">
         <v>124</v>
       </c>
@@ -4614,7 +4586,7 @@
         <v>-0.87038102574899201</v>
       </c>
     </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:3">
       <c r="B126">
         <v>125</v>
       </c>
@@ -4622,7 +4594,7 @@
         <v>-0.74245848655475</v>
       </c>
     </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:3">
       <c r="B127">
         <v>126</v>
       </c>
@@ -4630,7 +4602,7 @@
         <v>-0.70828249958865297</v>
       </c>
     </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:3">
       <c r="B128">
         <v>127</v>
       </c>
@@ -4638,7 +4610,7 @@
         <v>-0.67397173951364597</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:3">
       <c r="B129">
         <v>128</v>
       </c>
@@ -4646,7 +4618,7 @@
         <v>-0.79465627064463096</v>
       </c>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:3">
       <c r="B130">
         <v>129</v>
       </c>
@@ -4654,7 +4626,7 @@
         <v>-0.69181936042653602</v>
       </c>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:3">
       <c r="B131">
         <v>130</v>
       </c>
@@ -4662,7 +4634,7 @@
         <v>-0.63098343816957703</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:3">
       <c r="B132">
         <v>131</v>
       </c>
@@ -4670,7 +4642,7 @@
         <v>-0.54815992624107701</v>
       </c>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:3">
       <c r="B133">
         <v>132</v>
       </c>
@@ -4678,7 +4650,7 @@
         <v>-0.64150544420432098</v>
       </c>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:3">
       <c r="B134">
         <v>133</v>
       </c>
@@ -4686,7 +4658,7 @@
         <v>-0.48036480481031002</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:3">
       <c r="B135">
         <v>134</v>
       </c>
@@ -4694,7 +4666,7 @@
         <v>-0.52708015669353303</v>
       </c>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:3">
       <c r="B136">
         <v>135</v>
       </c>
@@ -4702,7 +4674,7 @@
         <v>-0.47375825658721699</v>
       </c>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:3">
       <c r="B137">
         <v>136</v>
       </c>
@@ -4710,7 +4682,7 @@
         <v>-0.43239820572280002</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:3">
       <c r="B138">
         <v>137</v>
       </c>
@@ -4718,7 +4690,7 @@
         <v>-0.44746972726871498</v>
       </c>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:3">
       <c r="B139">
         <v>138</v>
       </c>
@@ -4726,7 +4698,7 @@
         <v>-0.45062793825322101</v>
       </c>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:3">
       <c r="B140">
         <v>139</v>
       </c>
@@ -4734,7 +4706,7 @@
         <v>-0.30231293988118302</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:3">
       <c r="B141">
         <v>140</v>
       </c>
@@ -4742,7 +4714,7 @@
         <v>-0.25014223525304102</v>
       </c>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:3">
       <c r="B142">
         <v>141</v>
       </c>
@@ -4750,7 +4722,7 @@
         <v>-0.34023412523671898</v>
       </c>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:3">
       <c r="B143">
         <v>142</v>
       </c>
@@ -4758,7 +4730,7 @@
         <v>-0.20564334794435701</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:3">
       <c r="B144">
         <v>143</v>
       </c>
@@ -4766,7 +4738,7 @@
         <v>-0.146596230243243</v>
       </c>
     </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:3">
       <c r="B145">
         <v>144</v>
       </c>
@@ -4774,7 +4746,7 @@
         <v>-0.115092025612721</v>
       </c>
     </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:3">
       <c r="B146">
         <v>145</v>
       </c>
@@ -4782,7 +4754,7 @@
         <v>-0.158845704680705</v>
       </c>
     </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:3">
       <c r="B147">
         <v>146</v>
       </c>
@@ -4790,7 +4762,7 @@
         <v>-5.3862107647502197E-2</v>
       </c>
     </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:3">
       <c r="B148">
         <v>147</v>
       </c>
@@ -4798,7 +4770,7 @@
         <v>9.7667658508317004E-2</v>
       </c>
     </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:3">
       <c r="B149">
         <v>148</v>
       </c>
@@ -4806,7 +4778,7 @@
         <v>7.3370132307603003E-2</v>
       </c>
     </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:3">
       <c r="B150">
         <v>149</v>
       </c>
@@ -4814,7 +4786,7 @@
         <v>0.13879010555667901</v>
       </c>
     </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:3">
       <c r="B151">
         <v>150</v>
       </c>
@@ -4822,7 +4794,7 @@
         <v>0.14059867662109801</v>
       </c>
     </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:3">
       <c r="B152">
         <v>151</v>
       </c>
@@ -4830,7 +4802,7 @@
         <v>0.163146337097275</v>
       </c>
     </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:3">
       <c r="B153">
         <v>152</v>
       </c>
@@ -4838,7 +4810,7 @@
         <v>0.28395945400488698</v>
       </c>
     </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:3">
       <c r="B154">
         <v>153</v>
       </c>
@@ -4846,7 +4818,7 @@
         <v>0.31825919886590498</v>
       </c>
     </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:3">
       <c r="B155">
         <v>154</v>
       </c>
@@ -4854,7 +4826,7 @@
         <v>0.33381701768063199</v>
       </c>
     </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:3">
       <c r="B156">
         <v>155</v>
       </c>
@@ -4862,7 +4834,7 @@
         <v>0.390692090078337</v>
       </c>
     </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:3">
       <c r="B157">
         <v>156</v>
       </c>
@@ -4870,7 +4842,7 @@
         <v>0.42030137116960498</v>
       </c>
     </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:3">
       <c r="B158">
         <v>157</v>
       </c>
@@ -4878,7 +4850,7 @@
         <v>0.41753950645552401</v>
       </c>
     </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:3">
       <c r="B159">
         <v>158</v>
       </c>
@@ -4886,7 +4858,7 @@
         <v>0.42514958290151</v>
       </c>
     </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:3">
       <c r="B160">
         <v>159</v>
       </c>
@@ -4894,7 +4866,7 @@
         <v>0.56456348920562704</v>
       </c>
     </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:3">
       <c r="B161">
         <v>160</v>
       </c>
@@ -4902,7 +4874,7 @@
         <v>0.46308414000195097</v>
       </c>
     </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:3">
       <c r="B162">
         <v>161</v>
       </c>
@@ -4910,7 +4882,7 @@
         <v>0.63267245663627703</v>
       </c>
     </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:3">
       <c r="B163">
         <v>162</v>
       </c>
@@ -4918,7 +4890,7 @@
         <v>0.50211184657803898</v>
       </c>
     </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:3">
       <c r="B164">
         <v>163</v>
       </c>
@@ -4926,7 +4898,7 @@
         <v>0.67372290644084099</v>
       </c>
     </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:3">
       <c r="B165">
         <v>164</v>
       </c>
@@ -4934,7 +4906,7 @@
         <v>0.70535694454418496</v>
       </c>
     </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:3">
       <c r="B166">
         <v>165</v>
       </c>
@@ -4942,7 +4914,7 @@
         <v>0.61340563791149605</v>
       </c>
     </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:3">
       <c r="B167">
         <v>166</v>
       </c>
@@ -4950,7 +4922,7 @@
         <v>0.76329134506052598</v>
       </c>
     </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:3">
       <c r="B168">
         <v>167</v>
       </c>
@@ -4958,7 +4930,7 @@
         <v>0.73033197199980904</v>
       </c>
     </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:3">
       <c r="B169">
         <v>168</v>
       </c>
@@ -4966,7 +4938,7 @@
         <v>0.86328475796322701</v>
       </c>
     </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:3">
       <c r="B170">
         <v>169</v>
       </c>
@@ -4974,7 +4946,7 @@
         <v>0.77567166426024903</v>
       </c>
     </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:3">
       <c r="B171">
         <v>170</v>
       </c>
@@ -4982,7 +4954,7 @@
         <v>0.77286648797275603</v>
       </c>
     </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:3">
       <c r="B172">
         <v>171</v>
       </c>
@@ -4990,7 +4962,7 @@
         <v>1.3573368773666199</v>
       </c>
     </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:3">
       <c r="B173">
         <v>172</v>
       </c>
@@ -4998,7 +4970,7 @@
         <v>1.29370084679301</v>
       </c>
     </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:3">
       <c r="B174">
         <v>173</v>
       </c>
@@ -5006,7 +4978,7 @@
         <v>1.0985956829449199</v>
       </c>
     </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:3">
       <c r="B175">
         <v>174</v>
       </c>
@@ -5014,7 +4986,7 @@
         <v>0.70308359474605298</v>
       </c>
     </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:3">
       <c r="B176">
         <v>175</v>
       </c>
@@ -5022,7 +4994,7 @@
         <v>0.61841438231591195</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:3">
       <c r="B177">
         <v>176</v>
       </c>
@@ -5030,7 +5002,7 @@
         <v>0.390314925177905</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:3">
       <c r="B178">
         <v>177</v>
       </c>
@@ -5038,7 +5010,7 @@
         <v>0.33617619626519402</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:3">
       <c r="B179">
         <v>178</v>
       </c>
@@ -5046,7 +5018,7 @@
         <v>0.40571203346270301</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:3">
       <c r="B180">
         <v>179</v>
       </c>
@@ -5054,7 +5026,7 @@
         <v>0.77813900925268498</v>
       </c>
     </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:3">
       <c r="B181">
         <v>180</v>
       </c>
@@ -5062,7 +5034,7 @@
         <v>0.94749871082577497</v>
       </c>
     </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:3">
       <c r="B182">
         <v>181</v>
       </c>
@@ -5070,7 +5042,7 @@
         <v>1.3230177399857701</v>
       </c>
     </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:3">
       <c r="B183">
         <v>182</v>
       </c>
@@ -5078,7 +5050,7 @@
         <v>1.6011279723602601</v>
       </c>
     </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:3">
       <c r="B184">
         <v>183</v>
       </c>
@@ -5086,7 +5058,7 @@
         <v>1.5891611681387099</v>
       </c>
     </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:3">
       <c r="B185">
         <v>184</v>
       </c>
@@ -5094,7 +5066,7 @@
         <v>1.4452366516994599</v>
       </c>
     </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:3">
       <c r="B186">
         <v>185</v>
       </c>
@@ -5102,7 +5074,7 @@
         <v>1.3442639365920199</v>
       </c>
     </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:3">
       <c r="B187">
         <v>186</v>
       </c>
@@ -5110,7 +5082,7 @@
         <v>1.1280672778351499</v>
       </c>
     </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:3">
       <c r="B188">
         <v>187</v>
       </c>
@@ -5118,7 +5090,7 @@
         <v>0.67541419067236996</v>
       </c>
     </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:3">
       <c r="B189">
         <v>188</v>
       </c>
@@ -5126,7 +5098,7 @@
         <v>0.55187121248660098</v>
       </c>
     </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:3">
       <c r="B190">
         <v>189</v>
       </c>
@@ -5134,7 +5106,7 @@
         <v>0.43778474250154997</v>
       </c>
     </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:3">
       <c r="B191">
         <v>190</v>
       </c>
@@ -5142,7 +5114,7 @@
         <v>0.28987407477452198</v>
       </c>
     </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:3">
       <c r="B192">
         <v>191</v>
       </c>
@@ -5150,7 +5122,7 @@
         <v>0.59793262409106895</v>
       </c>
     </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:3">
       <c r="B193">
         <v>192</v>
       </c>
@@ -5158,7 +5130,7 @@
         <v>0.83869968503335202</v>
       </c>
     </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:3">
       <c r="B194">
         <v>193</v>
       </c>
@@ -5166,7 +5138,7 @@
         <v>1.0183557620894901</v>
       </c>
     </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:3">
       <c r="B195">
         <v>194</v>
       </c>
@@ -5174,7 +5146,7 @@
         <v>1.18686956714532</v>
       </c>
     </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:3">
       <c r="B196">
         <v>195</v>
       </c>
@@ -5182,7 +5154,7 @@
         <v>1.52963596092987</v>
       </c>
     </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:3">
       <c r="B197">
         <v>196</v>
       </c>
@@ -5190,7 +5162,7 @@
         <v>1.4077614244102601</v>
       </c>
     </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:3">
       <c r="B198">
         <v>197</v>
       </c>
@@ -5198,7 +5170,7 @@
         <v>1.4211131684520799</v>
       </c>
     </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:3">
       <c r="B199">
         <v>198</v>
       </c>
@@ -5206,7 +5178,7 @@
         <v>1.04889178166265</v>
       </c>
     </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:3">
       <c r="B200">
         <v>199</v>
       </c>
@@ -5214,7 +5186,7 @@
         <v>0.80134045449543001</v>
       </c>
     </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:3">
       <c r="B201">
         <v>200</v>
       </c>
@@ -5222,7 +5194,7 @@
         <v>0.47052357384242</v>
       </c>
     </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:3">
       <c r="B202">
         <v>201</v>
       </c>
@@ -5230,7 +5202,7 @@
         <v>0.245835354695179</v>
       </c>
     </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:3">
       <c r="B203">
         <v>202</v>
       </c>
@@ -5238,7 +5210,7 @@
         <v>0.147990063044455</v>
       </c>
     </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:3">
       <c r="B204">
         <v>203</v>
       </c>
@@ -5246,7 +5218,7 @@
         <v>0.15141485737456101</v>
       </c>
     </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:3">
       <c r="B205">
         <v>204</v>
       </c>
@@ -5254,7 +5226,7 @@
         <v>0.253840785743844</v>
       </c>
     </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:3">
       <c r="B206">
         <v>205</v>
       </c>
@@ -5262,7 +5234,7 @@
         <v>0.51541439297695302</v>
       </c>
     </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:3">
       <c r="B207">
         <v>206</v>
       </c>
@@ -5270,7 +5242,7 @@
         <v>0.80472368673580097</v>
       </c>
     </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:3">
       <c r="B208">
         <v>207</v>
       </c>
@@ -5278,7 +5250,7 @@
         <v>0.94076542631125304</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:3">
       <c r="B209">
         <v>208</v>
       </c>
@@ -5286,7 +5258,7 @@
         <v>1.0843800945359301</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:3">
       <c r="B210">
         <v>209</v>
       </c>
@@ -5294,7 +5266,7 @@
         <v>0.97392082701363902</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:3">
       <c r="B211">
         <v>210</v>
       </c>
@@ -5302,7 +5274,7 @@
         <v>0.87163211767748205</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:3">
       <c r="B212">
         <v>211</v>
       </c>
@@ -5310,7 +5282,7 @@
         <v>0.59728171920262296</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:3">
       <c r="B213">
         <v>212</v>
       </c>
@@ -5318,7 +5290,7 @@
         <v>0.316340944290597</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:3">
       <c r="B214">
         <v>213</v>
       </c>
@@ -5326,7 +5298,7 @@
         <v>-9.9275841023429998E-2</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:3">
       <c r="B215">
         <v>214</v>
       </c>
@@ -5334,7 +5306,7 @@
         <v>-0.24367610197761899</v>
       </c>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:3">
       <c r="B216">
         <v>215</v>
       </c>
@@ -5342,7 +5314,7 @@
         <v>-0.443487400286734</v>
       </c>
     </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:3">
       <c r="B217">
         <v>216</v>
       </c>
@@ -5350,7 +5322,7 @@
         <v>-0.41445324253770299</v>
       </c>
     </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:3">
       <c r="B218">
         <v>217</v>
       </c>
@@ -5358,7 +5330,7 @@
         <v>-0.18125650393974799</v>
       </c>
     </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:3">
       <c r="B219">
         <v>218</v>
       </c>
@@ -5366,7 +5338,7 @@
         <v>-4.6424639272710996E-3</v>
       </c>
     </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:3">
       <c r="B220">
         <v>219</v>
       </c>
@@ -5374,7 +5346,7 @@
         <v>0.29788948261553899</v>
       </c>
     </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:3">
       <c r="B221">
         <v>220</v>
       </c>
@@ -5382,7 +5354,7 @@
         <v>0.49988183465173702</v>
       </c>
     </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:3">
       <c r="B222">
         <v>221</v>
       </c>
@@ -5390,7 +5362,7 @@
         <v>0.60251182844736295</v>
       </c>
     </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:3">
       <c r="B223">
         <v>222</v>
       </c>
@@ -5398,7 +5370,7 @@
         <v>0.46499179689604703</v>
       </c>
     </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:3">
       <c r="B224">
         <v>223</v>
       </c>
@@ -5406,7 +5378,7 @@
         <v>0.22164286131039301</v>
       </c>
     </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:3">
       <c r="B225">
         <v>224</v>
       </c>
@@ -5414,7 +5386,7 @@
         <v>4.2758070936671097E-2</v>
       </c>
     </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:3">
       <c r="B226">
         <v>225</v>
       </c>
@@ -5422,7 +5394,7 @@
         <v>-0.35527855503581801</v>
       </c>
     </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:3">
       <c r="B227">
         <v>226</v>
       </c>
@@ -5430,7 +5402,7 @@
         <v>-0.71126771050111703</v>
       </c>
     </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:3">
       <c r="B228">
         <v>227</v>
       </c>
@@ -5438,7 +5410,7 @@
         <v>-0.81627879012926796</v>
       </c>
     </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:3">
       <c r="B229">
         <v>228</v>
       </c>
@@ -5446,7 +5418,7 @@
         <v>-0.85085726988056898</v>
       </c>
     </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:3">
       <c r="B230">
         <v>229</v>
       </c>
@@ -5454,7 +5426,7 @@
         <v>-0.806715947906261</v>
       </c>
     </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:3">
       <c r="B231">
         <v>230</v>
       </c>
@@ -5462,7 +5434,7 @@
         <v>-0.78046827221257997</v>
       </c>
     </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:3">
       <c r="B232">
         <v>231</v>
       </c>
@@ -5470,7 +5442,7 @@
         <v>-0.40802350719205899</v>
       </c>
     </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:3">
       <c r="B233">
         <v>232</v>
       </c>
@@ -5478,7 +5450,7 @@
         <v>-0.122121980631848</v>
       </c>
     </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:3">
       <c r="B234">
         <v>233</v>
       </c>
@@ -5486,7 +5458,7 @@
         <v>-0.109463470833337</v>
       </c>
     </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:3">
       <c r="B235">
         <v>234</v>
       </c>
@@ -5494,7 +5466,7 @@
         <v>-1.9722071545235299E-2</v>
       </c>
     </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:3">
       <c r="B236">
         <v>235</v>
       </c>
@@ -5502,7 +5474,7 @@
         <v>-9.8165451889889298E-3</v>
       </c>
     </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:3">
       <c r="B237">
         <v>236</v>
       </c>
@@ -5510,7 +5482,7 @@
         <v>-0.29154003754310298</v>
       </c>
     </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:3">
       <c r="B238">
         <v>237</v>
       </c>
@@ -5518,7 +5490,7 @@
         <v>-0.47520266159520602</v>
       </c>
     </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:3">
       <c r="B239">
         <v>238</v>
       </c>
@@ -5526,7 +5498,7 @@
         <v>-0.86898992575453804</v>
       </c>
     </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:3">
       <c r="B240">
         <v>239</v>
       </c>
@@ -5534,7 +5506,7 @@
         <v>-1.1108908916182001</v>
       </c>
     </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:3">
       <c r="B241">
         <v>240</v>
       </c>
@@ -5542,7 +5514,7 @@
         <v>-1.2875811975768501</v>
       </c>
     </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:3">
       <c r="B242">
         <v>241</v>
       </c>
@@ -5550,7 +5522,7 @@
         <v>-1.3166164680719901</v>
       </c>
     </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:3">
       <c r="B243">
         <v>242</v>
       </c>
@@ -5558,7 +5530,7 @@
         <v>-1.31815952825815</v>
       </c>
     </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:3">
       <c r="B244">
         <v>243</v>
       </c>
@@ -5566,7 +5538,7 @@
         <v>-1.0507915536805501</v>
       </c>
     </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:3">
       <c r="B245">
         <v>244</v>
       </c>
@@ -5574,7 +5546,7 @@
         <v>-0.79118532336829395</v>
       </c>
     </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:3">
       <c r="B246">
         <v>245</v>
       </c>
@@ -5582,7 +5554,7 @@
         <v>-0.46740515889780099</v>
       </c>
     </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:3">
       <c r="B247">
         <v>246</v>
       </c>
@@ -5590,7 +5562,7 @@
         <v>-0.39725386521089401</v>
       </c>
     </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:3">
       <c r="B248">
         <v>247</v>
       </c>
@@ -5598,7 +5570,7 @@
         <v>-0.21978278998700099</v>
       </c>
     </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:3">
       <c r="B249">
         <v>248</v>
       </c>
@@ -5606,7 +5578,7 @@
         <v>-0.45888420872285102</v>
       </c>
     </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:3">
       <c r="B250">
         <v>249</v>
       </c>
@@ -5614,7 +5586,7 @@
         <v>-0.62396890986895504</v>
       </c>
     </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:3">
       <c r="B251">
         <v>250</v>
       </c>
@@ -5622,7 +5594,7 @@
         <v>-0.96375177338598605</v>
       </c>
     </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:3">
       <c r="B252">
         <v>251</v>
       </c>
@@ -5630,7 +5602,7 @@
         <v>-1.2644423579900399</v>
       </c>
     </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:3">
       <c r="B253">
         <v>252</v>
       </c>
@@ -5638,7 +5610,7 @@
         <v>-1.4900058696343299</v>
       </c>
     </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:3">
       <c r="B254">
         <v>253</v>
       </c>
@@ -5646,7 +5618,7 @@
         <v>-1.67232177448042</v>
       </c>
     </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:3">
       <c r="B255">
         <v>254</v>
       </c>
@@ -5654,7 +5626,7 @@
         <v>-1.55983233071466</v>
       </c>
     </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:3">
       <c r="B256">
         <v>255</v>
       </c>
@@ -5662,7 +5634,7 @@
         <v>-1.31805109621307</v>
       </c>
     </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:3">
       <c r="B257">
         <v>256</v>
       </c>
@@ -5670,7 +5642,7 @@
         <v>-1.20667659855678</v>
       </c>
     </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:3">
       <c r="B258">
         <v>257</v>
       </c>
@@ -5678,7 +5650,7 @@
         <v>-0.80007996516195201</v>
       </c>
     </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:3">
       <c r="B259">
         <v>258</v>
       </c>
@@ -5686,7 +5658,7 @@
         <v>-0.61821896153643496</v>
       </c>
     </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:3">
       <c r="B260">
         <v>259</v>
       </c>
@@ -5694,7 +5666,7 @@
         <v>-0.467466668005106</v>
       </c>
     </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:3">
       <c r="B261">
         <v>260</v>
       </c>
@@ -5702,7 +5674,7 @@
         <v>-0.44518013450750199</v>
       </c>
     </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:3">
       <c r="B262">
         <v>261</v>
       </c>
@@ -5710,7 +5682,7 @@
         <v>-0.53523668091151899</v>
       </c>
     </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:3">
       <c r="B263">
         <v>262</v>
       </c>
@@ -5718,7 +5690,7 @@
         <v>-0.79981239664984205</v>
       </c>
     </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:3">
       <c r="B264">
         <v>263</v>
       </c>
@@ -5726,7 +5698,7 @@
         <v>-0.98943162237509397</v>
       </c>
     </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:3">
       <c r="B265">
         <v>264</v>
       </c>
@@ -5734,7 +5706,7 @@
         <v>-1.3256836904538201</v>
       </c>
     </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:3">
       <c r="B266">
         <v>265</v>
       </c>
@@ -5742,7 +5714,7 @@
         <v>-1.4574553485583801</v>
       </c>
     </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:3">
       <c r="B267">
         <v>266</v>
       </c>
@@ -5750,7 +5722,7 @@
         <v>-1.61550914230878</v>
       </c>
     </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:3">
       <c r="B268">
         <v>267</v>
       </c>
@@ -5758,7 +5730,7 @@
         <v>-1.4966997562556199</v>
       </c>
     </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:3">
       <c r="B269">
         <v>268</v>
       </c>
@@ -5766,7 +5738,7 @@
         <v>-1.1583710620144001</v>
       </c>
     </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:3">
       <c r="B270">
         <v>269</v>
       </c>
@@ -5774,7 +5746,7 @@
         <v>-0.94510646981531399</v>
       </c>
     </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:3">
       <c r="B271">
         <v>270</v>
       </c>
@@ -5782,7 +5754,7 @@
         <v>-0.55194068331569202</v>
       </c>
     </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:3">
       <c r="B272">
         <v>271</v>
       </c>
@@ -5790,7 +5762,7 @@
         <v>-0.38355063912604498</v>
       </c>
     </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:3">
       <c r="B273">
         <v>272</v>
       </c>
@@ -5798,7 +5770,7 @@
         <v>-0.15525009133591899</v>
       </c>
     </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:3">
       <c r="B274">
         <v>273</v>
       </c>
@@ -5806,7 +5778,7 @@
         <v>-0.26379989352246502</v>
       </c>
     </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:3">
       <c r="B275">
         <v>274</v>
       </c>
@@ -5814,7 +5786,7 @@
         <v>-0.31989253320801703</v>
       </c>
     </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:3">
       <c r="B276">
         <v>275</v>
       </c>
@@ -5822,7 +5794,7 @@
         <v>-0.56540416331875498</v>
       </c>
     </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:3">
       <c r="B277">
         <v>276</v>
       </c>
@@ -5830,7 +5802,7 @@
         <v>-0.69624956534180005</v>
       </c>
     </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:3">
       <c r="B278">
         <v>277</v>
       </c>
@@ -5838,7 +5810,7 @@
         <v>-0.91553231654539602</v>
       </c>
     </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:3">
       <c r="B279">
         <v>278</v>
       </c>
@@ -5846,7 +5818,7 @@
         <v>-1.1323654621833199</v>
       </c>
     </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:3">
       <c r="B280">
         <v>279</v>
       </c>
@@ -5854,7 +5826,7 @@
         <v>-1.1511410075916699</v>
       </c>
     </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:3">
       <c r="B281">
         <v>280</v>
       </c>
@@ -5862,7 +5834,7 @@
         <v>-1.12436510779538</v>
       </c>
     </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:3">
       <c r="B282">
         <v>281</v>
       </c>
@@ -5870,7 +5842,7 @@
         <v>-0.88920032796031401</v>
       </c>
     </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:3">
       <c r="B283">
         <v>282</v>
       </c>
@@ -5878,7 +5850,7 @@
         <v>-0.57041860026782998</v>
       </c>
     </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:3">
       <c r="B284">
         <v>283</v>
       </c>
@@ -5886,7 +5858,7 @@
         <v>-0.145611173178329</v>
       </c>
     </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:3">
       <c r="B285">
         <v>284</v>
       </c>
@@ -5894,7 +5866,7 @@
         <v>0.106038499475096</v>
       </c>
     </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:3">
       <c r="B286">
         <v>285</v>
       </c>
@@ -5902,7 +5874,7 @@
         <v>0.286519390214447</v>
       </c>
     </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:3">
       <c r="B287">
         <v>286</v>
       </c>
@@ -5910,7 +5882,7 @@
         <v>0.213064960539739</v>
       </c>
     </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:3">
       <c r="B288">
         <v>287</v>
       </c>
@@ -5918,7 +5890,7 @@
         <v>7.9959713233260801E-2</v>
       </c>
     </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:3">
       <c r="B289">
         <v>288</v>
       </c>
@@ -5926,7 +5898,7 @@
         <v>1.1839499041972099E-2</v>
       </c>
     </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:3">
       <c r="B290">
         <v>289</v>
       </c>
@@ -5934,7 +5906,7 @@
         <v>-0.35056456856563301</v>
       </c>
     </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:3">
       <c r="B291">
         <v>290</v>
       </c>
@@ -5942,7 +5914,7 @@
         <v>-0.48669250916384799</v>
       </c>
     </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:3">
       <c r="B292">
         <v>291</v>
       </c>
@@ -5950,7 +5922,7 @@
         <v>-0.60939412740183196</v>
       </c>
     </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:3">
       <c r="B293">
         <v>292</v>
       </c>
@@ -5958,7 +5930,7 @@
         <v>-0.67718590594299299</v>
       </c>
     </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:3">
       <c r="B294">
         <v>293</v>
       </c>
@@ -5966,7 +5938,7 @@
         <v>-0.53346472964907199</v>
       </c>
     </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:3">
       <c r="B295">
         <v>294</v>
       </c>
@@ -5974,7 +5946,7 @@
         <v>-0.26702474248296698</v>
       </c>
     </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:3">
       <c r="B296">
         <v>295</v>
       </c>
@@ -5982,7 +5954,7 @@
         <v>0.13509038578565</v>
       </c>
     </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:3">
       <c r="B297">
         <v>296</v>
       </c>
@@ -5990,7 +5962,7 @@
         <v>0.357014146873255</v>
       </c>
     </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:3">
       <c r="B298">
         <v>297</v>
       </c>
@@ -5998,7 +5970,7 @@
         <v>0.63312097595574002</v>
       </c>
     </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:3">
       <c r="B299">
         <v>298</v>
       </c>
@@ -6006,7 +5978,7 @@
         <v>0.80198409633939505</v>
       </c>
     </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:3">
       <c r="B300">
         <v>299</v>
       </c>
@@ -6014,7 +5986,7 @@
         <v>0.79073390884963002</v>
       </c>
     </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:3">
       <c r="B301">
         <v>300</v>
       </c>
@@ -6022,7 +5994,7 @@
         <v>0.60128712240902904</v>
       </c>
     </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:3">
       <c r="B302">
         <v>301</v>
       </c>
@@ -6030,7 +6002,7 @@
         <v>0.46684377815334399</v>
       </c>
     </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:3">
       <c r="B303">
         <v>302</v>
       </c>
@@ -6038,7 +6010,7 @@
         <v>0.23910709734164401</v>
       </c>
     </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:3">
       <c r="B304">
         <v>303</v>
       </c>
@@ -6046,7 +6018,7 @@
         <v>-3.9943420411410899E-2</v>
       </c>
     </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:3">
       <c r="B305">
         <v>304</v>
       </c>
@@ -6054,7 +6026,7 @@
         <v>-0.207697582828444</v>
       </c>
     </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:3">
       <c r="B306">
         <v>305</v>
       </c>
@@ -6062,7 +6034,7 @@
         <v>-0.160429914221077</v>
       </c>
     </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:3">
       <c r="B307">
         <v>306</v>
       </c>
@@ -6070,7 +6042,7 @@
         <v>5.0200663868457E-2</v>
       </c>
     </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:3">
       <c r="B308">
         <v>307</v>
       </c>
@@ -6078,7 +6050,7 @@
         <v>0.45250998428303701</v>
       </c>
     </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:3">
       <c r="B309">
         <v>308</v>
       </c>
@@ -6086,7 +6058,7 @@
         <v>0.74413013685737595</v>
       </c>
     </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:3">
       <c r="B310">
         <v>309</v>
       </c>
@@ -6094,7 +6066,7 @@
         <v>0.98198664909878997</v>
       </c>
     </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:3">
       <c r="B311">
         <v>310</v>
       </c>
@@ -6102,7 +6074,7 @@
         <v>1.25314615856518</v>
       </c>
     </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:3">
       <c r="B312">
         <v>311</v>
       </c>
@@ -6110,7 +6082,7 @@
         <v>1.21187966181812</v>
       </c>
     </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:3">
       <c r="B313">
         <v>312</v>
       </c>
@@ -6118,7 +6090,7 @@
         <v>1.3097634609864299</v>
       </c>
     </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:3">
       <c r="B314">
         <v>313</v>
       </c>
@@ -6126,7 +6098,7 @@
         <v>1.0012680225049899</v>
       </c>
     </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:3">
       <c r="B315">
         <v>314</v>
       </c>
@@ -6134,7 +6106,7 @@
         <v>0.872585158533562</v>
       </c>
     </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:3">
       <c r="B316">
         <v>315</v>
       </c>
@@ -6142,7 +6114,7 @@
         <v>0.46799801347846798</v>
       </c>
     </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:3">
       <c r="B317">
         <v>316</v>
       </c>
@@ -6150,7 +6122,7 @@
         <v>0.276910275464053</v>
       </c>
     </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:3">
       <c r="B318">
         <v>317</v>
       </c>
@@ -6158,7 +6130,7 @@
         <v>0.26093965700949301</v>
       </c>
     </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:3">
       <c r="B319">
         <v>318</v>
       </c>
@@ -6166,7 +6138,7 @@
         <v>0.40086900845196599</v>
       </c>
     </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:3">
       <c r="B320">
         <v>319</v>
       </c>
@@ -6174,7 +6146,7 @@
         <v>0.59644518329860996</v>
       </c>
     </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:3">
       <c r="B321">
         <v>320</v>
       </c>
@@ -6182,7 +6154,7 @@
         <v>0.85850136412762401</v>
       </c>
     </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:3">
       <c r="B322">
         <v>321</v>
       </c>
@@ -6190,7 +6162,7 @@
         <v>1.0207069154948001</v>
       </c>
     </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:3">
       <c r="B323">
         <v>322</v>
       </c>
@@ -6198,7 +6170,7 @@
         <v>1.3394812665984801</v>
       </c>
     </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:3">
       <c r="B324">
         <v>323</v>
       </c>
@@ -6206,7 +6178,7 @@
         <v>1.5392250842419599</v>
       </c>
     </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:3">
       <c r="B325">
         <v>324</v>
       </c>
@@ -6214,7 +6186,7 @@
         <v>1.50781618069012</v>
       </c>
     </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:3">
       <c r="B326">
         <v>325</v>
       </c>
@@ -6222,7 +6194,7 @@
         <v>1.41627089330064</v>
       </c>
     </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:3">
       <c r="B327">
         <v>326</v>
       </c>
@@ -6230,7 +6202,7 @@
         <v>1.25979235717095</v>
       </c>
     </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:3">
       <c r="B328">
         <v>327</v>
       </c>
@@ -6238,7 +6210,7 @@
         <v>0.99683030645884496</v>
       </c>
     </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:3">
       <c r="B329">
         <v>328</v>
       </c>
@@ -6246,7 +6218,7 @@
         <v>0.64845574985428001</v>
       </c>
     </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:3">
       <c r="B330">
         <v>329</v>
       </c>
@@ -6254,7 +6226,7 @@
         <v>0.37230228117456499</v>
       </c>
     </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:3">
       <c r="B331">
         <v>330</v>
       </c>
@@ -6262,7 +6234,7 @@
         <v>0.34569820357401698</v>
       </c>
     </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:3">
       <c r="B332">
         <v>331</v>
       </c>
@@ -6270,7 +6242,7 @@
         <v>0.38798551486391702</v>
       </c>
     </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:3">
       <c r="B333">
         <v>332</v>
       </c>
@@ -6278,7 +6250,7 @@
         <v>0.63014053814374005</v>
       </c>
     </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:3">
       <c r="B334">
         <v>333</v>
       </c>
@@ -6286,7 +6258,7 @@
         <v>0.864301457457198</v>
       </c>
     </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:3">
       <c r="B335">
         <v>334</v>
       </c>
@@ -6294,7 +6266,7 @@
         <v>1.29112317287629</v>
       </c>
     </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:3">
       <c r="B336">
         <v>335</v>
       </c>
@@ -6302,7 +6274,7 @@
         <v>1.42333163942545</v>
       </c>
     </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:3">
       <c r="B337">
         <v>336</v>
       </c>
@@ -6310,7 +6282,7 @@
         <v>1.46217550549921</v>
       </c>
     </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:3">
       <c r="B338">
         <v>337</v>
       </c>
@@ -6318,7 +6290,7 @@
         <v>1.51503428979301</v>
       </c>
     </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:3">
       <c r="B339">
         <v>338</v>
       </c>
@@ -6326,7 +6298,7 @@
         <v>1.4147553553485499</v>
       </c>
     </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:3">
       <c r="B340">
         <v>339</v>
       </c>
@@ -6334,7 +6306,7 @@
         <v>1.11013690755172</v>
       </c>
     </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:3">
       <c r="B341">
         <v>340</v>
       </c>
@@ -6342,7 +6314,7 @@
         <v>0.72419887408419303</v>
       </c>
     </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:3">
       <c r="B342">
         <v>341</v>
       </c>
@@ -6350,7 +6322,7 @@
         <v>0.540407338122602</v>
       </c>
     </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:3">
       <c r="B343">
         <v>342</v>
       </c>
@@ -6358,7 +6330,7 @@
         <v>0.764338463025796</v>
       </c>
     </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:3">
       <c r="B344">
         <v>343</v>
       </c>
@@ -6366,7 +6338,7 @@
         <v>0.77514144358679005</v>
       </c>
     </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:3">
       <c r="B345">
         <v>344</v>
       </c>
@@ -6374,7 +6346,7 @@
         <v>0.85361911920191302</v>
       </c>
     </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:3">
       <c r="B346">
         <v>345</v>
       </c>
@@ -6382,7 +6354,7 @@
         <v>0.76016589569592996</v>
       </c>
     </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:3">
       <c r="B347">
         <v>346</v>
       </c>
@@ -6390,7 +6362,7 @@
         <v>0.74375929408570696</v>
       </c>
     </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:3">
       <c r="B348">
         <v>347</v>
       </c>
@@ -6398,7 +6370,7 @@
         <v>0.80520964594213895</v>
       </c>
     </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:3">
       <c r="B349">
         <v>348</v>
       </c>
@@ -6406,7 +6378,7 @@
         <v>0.60687148298344495</v>
       </c>
     </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:3">
       <c r="B350">
         <v>349</v>
       </c>
@@ -6414,7 +6386,7 @@
         <v>0.70680287781372098</v>
       </c>
     </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:3">
       <c r="B351">
         <v>350</v>
       </c>
@@ -6422,7 +6394,7 @@
         <v>0.57410614756605305</v>
       </c>
     </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:3">
       <c r="B352">
         <v>351</v>
       </c>
@@ -6430,7 +6402,7 @@
         <v>0.51760122513060902</v>
       </c>
     </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:3">
       <c r="B353">
         <v>352</v>
       </c>
@@ -6438,7 +6410,7 @@
         <v>0.59285378704111902</v>
       </c>
     </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:3">
       <c r="B354">
         <v>353</v>
       </c>
@@ -6446,7 +6418,7 @@
         <v>0.60607094917104698</v>
       </c>
     </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:3">
       <c r="B355">
         <v>354</v>
       </c>
@@ -6454,7 +6426,7 @@
         <v>0.45516034336516398</v>
       </c>
     </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:3">
       <c r="B356">
         <v>355</v>
       </c>
@@ -6462,7 +6434,7 @@
         <v>0.47695002051734797</v>
       </c>
     </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:3">
       <c r="B357">
         <v>356</v>
       </c>
@@ -6470,7 +6442,7 @@
         <v>0.31903855704006501</v>
       </c>
     </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:3">
       <c r="B358">
         <v>357</v>
       </c>
@@ -6478,7 +6450,7 @@
         <v>0.31881549152018801</v>
       </c>
     </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:3">
       <c r="B359">
         <v>358</v>
       </c>
@@ -6486,7 +6458,7 @@
         <v>0.32855064502171799</v>
       </c>
     </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:3">
       <c r="B360">
         <v>359</v>
       </c>
@@ -6494,7 +6466,7 @@
         <v>0.39183945393780201</v>
       </c>
     </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:3">
       <c r="B361">
         <v>360</v>
       </c>
@@ -6502,7 +6474,7 @@
         <v>0.272199590729443</v>
       </c>
     </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:3">
       <c r="B362">
         <v>361</v>
       </c>
@@ -6510,7 +6482,7 @@
         <v>0.17784582436771801</v>
       </c>
     </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:3">
       <c r="B363">
         <v>362</v>
       </c>
@@ -6518,7 +6490,7 @@
         <v>0.17928388356808</v>
       </c>
     </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:3">
       <c r="B364">
         <v>363</v>
       </c>
@@ -6526,7 +6498,7 @@
         <v>7.5779660943748106E-2</v>
       </c>
     </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:3">
       <c r="B365">
         <v>364</v>
       </c>
@@ -6534,7 +6506,7 @@
         <v>-1.24273252419131E-2</v>
       </c>
     </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:3">
       <c r="B366">
         <v>365</v>
       </c>
@@ -6542,7 +6514,7 @@
         <v>-1.63802048955995E-2</v>
       </c>
     </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:3">
       <c r="B367">
         <v>366</v>
       </c>
@@ -6550,7 +6522,7 @@
         <v>8.7952115162446401E-2</v>
       </c>
     </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:3">
       <c r="B368">
         <v>367</v>
       </c>
@@ -6558,7 +6530,7 @@
         <v>-2.4125355346928799E-2</v>
       </c>
     </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:3">
       <c r="B369">
         <v>368</v>
       </c>
@@ -6566,7 +6538,7 @@
         <v>-1.9492121207879999E-2</v>
       </c>
     </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:3">
       <c r="B370">
         <v>369</v>
       </c>
@@ -6574,7 +6546,7 @@
         <v>-0.19464932439603899</v>
       </c>
     </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:3">
       <c r="B371">
         <v>370</v>
       </c>
@@ -6582,7 +6554,7 @@
         <v>-0.12868640838458401</v>
       </c>
     </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:3">
       <c r="B372">
         <v>371</v>
       </c>
@@ -6590,7 +6562,7 @@
         <v>-0.127340163396334</v>
       </c>
     </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:3">
       <c r="B373">
         <v>372</v>
       </c>
@@ -6598,7 +6570,7 @@
         <v>-0.20958488597021699</v>
       </c>
     </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:3">
       <c r="B374">
         <v>373</v>
       </c>
@@ -6606,7 +6578,7 @@
         <v>-0.27166239866624797</v>
       </c>
     </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:3">
       <c r="B375">
         <v>374</v>
       </c>
@@ -6614,7 +6586,7 @@
         <v>-0.27824375541284602</v>
       </c>
     </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:3">
       <c r="B376">
         <v>375</v>
       </c>
@@ -6622,7 +6594,7 @@
         <v>-0.46757505660661203</v>
       </c>
     </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:3">
       <c r="B377">
         <v>376</v>
       </c>
@@ -6630,7 +6602,7 @@
         <v>-0.35784245033745898</v>
       </c>
     </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:3">
       <c r="B378">
         <v>377</v>
       </c>
@@ -6638,7 +6610,7 @@
         <v>-0.44269453265854197</v>
       </c>
     </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:3">
       <c r="B379">
         <v>378</v>
       </c>
@@ -6646,7 +6618,7 @@
         <v>-0.52846485012992095</v>
       </c>
     </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:3">
       <c r="B380">
         <v>379</v>
       </c>
@@ -6654,7 +6626,7 @@
         <v>-0.53750415159958198</v>
       </c>
     </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:3">
       <c r="B381">
         <v>380</v>
       </c>
@@ -6662,7 +6634,7 @@
         <v>-0.49594462504058801</v>
       </c>
     </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:3">
       <c r="B382">
         <v>381</v>
       </c>
@@ -6670,7 +6642,7 @@
         <v>-0.62894748532146105</v>
       </c>
     </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:3">
       <c r="B383">
         <v>382</v>
       </c>
@@ -6678,7 +6650,7 @@
         <v>-0.606442186587833</v>
       </c>
     </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:3">
       <c r="B384">
         <v>383</v>
       </c>
@@ -6686,7 +6658,7 @@
         <v>-0.58477550268692702</v>
       </c>
     </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:3">
       <c r="B385">
         <v>384</v>
       </c>
@@ -6694,7 +6666,7 @@
         <v>-0.61182609391040099</v>
       </c>
     </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:3">
       <c r="B386">
         <v>385</v>
       </c>
@@ -6702,7 +6674,7 @@
         <v>-0.80507468625136702</v>
       </c>
     </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:3">
       <c r="B387">
         <v>386</v>
       </c>
@@ -6710,7 +6682,7 @@
         <v>-0.66892141138905603</v>
       </c>
     </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:3">
       <c r="B388">
         <v>387</v>
       </c>
@@ -6718,7 +6690,7 @@
         <v>-0.72589876179082802</v>
       </c>
     </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:3">
       <c r="B389">
         <v>388</v>
       </c>
@@ -6726,7 +6698,7 @@
         <v>-0.78825507130541395</v>
       </c>
     </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:3">
       <c r="B390">
         <v>389</v>
       </c>
@@ -6734,7 +6706,7 @@
         <v>-0.91353363474696203</v>
       </c>
     </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:3">
       <c r="B391">
         <v>390</v>
       </c>
@@ -6742,7 +6714,7 @@
         <v>-0.898117370542037</v>
       </c>
     </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:3">
       <c r="B392">
         <v>391</v>
       </c>
@@ -6750,7 +6722,7 @@
         <v>-0.81187796199876505</v>
       </c>
     </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:3">
       <c r="B393">
         <v>392</v>
       </c>
@@ -6758,7 +6730,7 @@
         <v>-0.84287669093851902</v>
       </c>
     </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:3">
       <c r="B394">
         <v>393</v>
       </c>
@@ -6766,7 +6738,7 @@
         <v>-1.00952535351045</v>
       </c>
     </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:3">
       <c r="B395">
         <v>394</v>
       </c>
@@ -6774,7 +6746,7 @@
         <v>-0.90963026531590996</v>
       </c>
     </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:3">
       <c r="B396">
         <v>395</v>
       </c>
@@ -6782,7 +6754,7 @@
         <v>-0.87584520178233605</v>
       </c>
     </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="2:3">
       <c r="B397">
         <v>396</v>
       </c>
@@ -6790,7 +6762,7 @@
         <v>-0.91572559320575997</v>
       </c>
     </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="2:3">
       <c r="B398">
         <v>397</v>
       </c>
@@ -6798,7 +6770,7 @@
         <v>-0.94623320498451402</v>
       </c>
     </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="2:3">
       <c r="B399">
         <v>398</v>
       </c>
@@ -6806,7 +6778,7 @@
         <v>-1.05356905437501</v>
       </c>
     </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="2:3">
       <c r="B400">
         <v>399</v>
       </c>
@@ -6814,7 +6786,7 @@
         <v>-1.00859401722207</v>
       </c>
     </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:3">
       <c r="B401">
         <v>400</v>
       </c>
@@ -6822,7 +6794,7 @@
         <v>-1.0009021936307601</v>
       </c>
     </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:3">
       <c r="B402">
         <v>401</v>
       </c>
@@ -6830,7 +6802,7 @@
         <v>-1.06464599833868</v>
       </c>
     </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:3">
       <c r="B403">
         <v>402</v>
       </c>
@@ -6838,7 +6810,7 @@
         <v>-1.0205410852566199</v>
       </c>
     </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:3">
       <c r="B404">
         <v>403</v>
       </c>
@@ -6846,7 +6818,7 @@
         <v>-1.01080506516413</v>
       </c>
     </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:3">
       <c r="B405">
         <v>404</v>
       </c>
@@ -6854,7 +6826,7 @@
         <v>-1.0453464755469399</v>
       </c>
     </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:3">
       <c r="B406">
         <v>405</v>
       </c>
@@ -6862,7 +6834,7 @@
         <v>-0.89977321533142496</v>
       </c>
     </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:3">
       <c r="B407">
         <v>406</v>
       </c>
@@ -6870,7 +6842,7 @@
         <v>-1.0183009917492101</v>
       </c>
     </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:3">
       <c r="B408">
         <v>407</v>
       </c>
@@ -6878,7 +6850,7 @@
         <v>-1.0135146599698499</v>
       </c>
     </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:3">
       <c r="B409">
         <v>408</v>
       </c>
@@ -6886,7 +6858,7 @@
         <v>-0.99926099865100904</v>
       </c>
     </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:3">
       <c r="B410">
         <v>409</v>
       </c>
@@ -6894,7 +6866,7 @@
         <v>-0.95136504554131196</v>
       </c>
     </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:3">
       <c r="B411">
         <v>410</v>
       </c>
@@ -6902,7 +6874,7 @@
         <v>-0.88027083240488302</v>
       </c>
     </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:3">
       <c r="B412">
         <v>411</v>
       </c>
@@ -6910,7 +6882,7 @@
         <v>-0.93805527684491397</v>
       </c>
     </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:3">
       <c r="B413">
         <v>412</v>
       </c>
@@ -6918,7 +6890,7 @@
         <v>-0.86708258008861105</v>
       </c>
     </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:3">
       <c r="B414">
         <v>413</v>
       </c>
@@ -6926,7 +6898,7 @@
         <v>-0.98792344568822998</v>
       </c>
     </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:3">
       <c r="B415">
         <v>414</v>
       </c>
@@ -6934,7 +6906,7 @@
         <v>-0.89507095590795505</v>
       </c>
     </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:3">
       <c r="B416">
         <v>415</v>
       </c>
@@ -6942,7 +6914,7 @@
         <v>-0.86293289524511796</v>
       </c>
     </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="2:3">
       <c r="B417">
         <v>416</v>
       </c>
@@ -6950,7 +6922,7 @@
         <v>-0.81678226152431999</v>
       </c>
     </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="2:3">
       <c r="B418">
         <v>417</v>
       </c>
@@ -6958,7 +6930,7 @@
         <v>-0.85919944531700398</v>
       </c>
     </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="2:3">
       <c r="B419">
         <v>418</v>
       </c>
@@ -6966,7 +6938,7 @@
         <v>-0.83949404928033999</v>
       </c>
     </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="2:3">
       <c r="B420">
         <v>419</v>
       </c>
@@ -6974,7 +6946,7 @@
         <v>-0.70435871553402896</v>
       </c>
     </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="2:3">
       <c r="B421">
         <v>420</v>
       </c>
@@ -6982,7 +6954,7 @@
         <v>-0.678204769716231</v>
       </c>
     </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="2:3">
       <c r="B422">
         <v>421</v>
       </c>
@@ -6990,7 +6962,7 @@
         <v>-0.75731458715300803</v>
       </c>
     </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="2:3">
       <c r="B423">
         <v>422</v>
       </c>
@@ -6998,7 +6970,7 @@
         <v>-0.68605377823456903</v>
       </c>
     </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="2:3">
       <c r="B424">
         <v>423</v>
       </c>
@@ -7006,7 +6978,7 @@
         <v>-0.54311189073236499</v>
       </c>
     </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="2:3">
       <c r="B425">
         <v>424</v>
       </c>
@@ -7014,7 +6986,7 @@
         <v>-0.68227139339808196</v>
       </c>
     </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="2:3">
       <c r="B426">
         <v>425</v>
       </c>
@@ -7022,7 +6994,7 @@
         <v>-0.51032195642500899</v>
       </c>
     </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="2:3">
       <c r="B427">
         <v>426</v>
       </c>
@@ -7030,7 +7002,7 @@
         <v>-0.52785348214760797</v>
       </c>
     </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="2:3">
       <c r="B428">
         <v>427</v>
       </c>
@@ -7038,7 +7010,7 @@
         <v>-0.57923064692049997</v>
       </c>
     </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="2:3">
       <c r="B429">
         <v>428</v>
       </c>
@@ -7046,7 +7018,7 @@
         <v>-0.53451210212686695</v>
       </c>
     </row>
-    <row r="430" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="2:3">
       <c r="B430">
         <v>429</v>
       </c>
@@ -7054,7 +7026,7 @@
         <v>-0.44470260489876701</v>
       </c>
     </row>
-    <row r="431" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="2:3">
       <c r="B431">
         <v>430</v>
       </c>
@@ -7062,7 +7034,7 @@
         <v>-0.46422787429377399</v>
       </c>
     </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="2:3">
       <c r="B432">
         <v>431</v>
       </c>
@@ -7070,7 +7042,7 @@
         <v>-0.33190343427930402</v>
       </c>
     </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="2:3">
       <c r="B433">
         <v>432</v>
       </c>
@@ -7078,7 +7050,7 @@
         <v>-0.214914566940622</v>
       </c>
     </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="2:3">
       <c r="B434">
         <v>433</v>
       </c>
@@ -7086,7 +7058,7 @@
         <v>-0.26834069480155598</v>
       </c>
     </row>
-    <row r="435" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="2:3">
       <c r="B435">
         <v>434</v>
       </c>
@@ -7094,7 +7066,7 @@
         <v>-0.17717522114853601</v>
       </c>
     </row>
-    <row r="436" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="2:3">
       <c r="B436">
         <v>435</v>
       </c>
@@ -7102,7 +7074,7 @@
         <v>-0.26123377545614901</v>
       </c>
     </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="2:3">
       <c r="B437">
         <v>436</v>
       </c>
@@ -7110,7 +7082,7 @@
         <v>-8.4167796575445999E-2</v>
       </c>
     </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="2:3">
       <c r="B438">
         <v>437</v>
       </c>
@@ -7118,7 +7090,7 @@
         <v>-7.7093050704505395E-2</v>
       </c>
     </row>
-    <row r="439" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="2:3">
       <c r="B439">
         <v>438</v>
       </c>
@@ -7126,7 +7098,7 @@
         <v>-0.118585602106843</v>
       </c>
     </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="2:3">
       <c r="B440">
         <v>439</v>
       </c>
@@ -7134,7 +7106,7 @@
         <v>-9.9889051762451095E-2</v>
       </c>
     </row>
-    <row r="441" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="2:3">
       <c r="B441">
         <v>440</v>
       </c>
@@ -7142,7 +7114,7 @@
         <v>-1.9445724562295898E-2</v>
       </c>
     </row>
-    <row r="442" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="2:3">
       <c r="B442">
         <v>441</v>
       </c>
@@ -7150,7 +7122,7 @@
         <v>0.185089231415351</v>
       </c>
     </row>
-    <row r="443" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="2:3">
       <c r="B443">
         <v>442</v>
       </c>
@@ -7158,7 +7130,7 @@
         <v>4.4115441909263801E-2</v>
       </c>
     </row>
-    <row r="444" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="2:3">
       <c r="B444">
         <v>443</v>
       </c>
@@ -7166,7 +7138,7 @@
         <v>0.245975689339862</v>
       </c>
     </row>
-    <row r="445" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="445" spans="2:3">
       <c r="B445">
         <v>444</v>
       </c>
@@ -7174,7 +7146,7 @@
         <v>0.12634379095577</v>
       </c>
     </row>
-    <row r="446" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="446" spans="2:3">
       <c r="B446">
         <v>445</v>
       </c>
@@ -7182,7 +7154,7 @@
         <v>0.34428124795139198</v>
       </c>
     </row>
-    <row r="447" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="447" spans="2:3">
       <c r="B447">
         <v>446</v>
       </c>
@@ -7190,7 +7162,7 @@
         <v>0.30979223057320798</v>
       </c>
     </row>
-    <row r="448" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="448" spans="2:3">
       <c r="B448">
         <v>447</v>
       </c>
@@ -7198,7 +7170,7 @@
         <v>0.35607547916274401</v>
       </c>
     </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="449" spans="2:3">
       <c r="B449">
         <v>448</v>
       </c>
@@ -7206,7 +7178,7 @@
         <v>0.279184929089421</v>
       </c>
     </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="450" spans="2:3">
       <c r="B450">
         <v>449</v>
       </c>
@@ -7214,7 +7186,7 @@
         <v>0.46311001311127797</v>
       </c>
     </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="451" spans="2:3">
       <c r="B451">
         <v>450</v>
       </c>
@@ -7222,7 +7194,7 @@
         <v>0.42504373987723398</v>
       </c>
     </row>
-    <row r="452" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="452" spans="2:3">
       <c r="B452">
         <v>451</v>
       </c>
@@ -7230,7 +7202,7 @@
         <v>0.54414045026610303</v>
       </c>
     </row>
-    <row r="453" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="453" spans="2:3">
       <c r="B453">
         <v>452</v>
       </c>
@@ -7238,7 +7210,7 @@
         <v>0.62936053545369297</v>
       </c>
     </row>
-    <row r="454" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="454" spans="2:3">
       <c r="B454">
         <v>453</v>
       </c>
@@ -7246,7 +7218,7 @@
         <v>0.65522272243758795</v>
       </c>
     </row>
-    <row r="455" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="455" spans="2:3">
       <c r="B455">
         <v>454</v>
       </c>
@@ -7254,7 +7226,7 @@
         <v>0.62312993684179696</v>
       </c>
     </row>
-    <row r="456" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="456" spans="2:3">
       <c r="B456">
         <v>455</v>
       </c>
@@ -7262,7 +7234,7 @@
         <v>0.56118199886659703</v>
       </c>
     </row>
-    <row r="457" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="457" spans="2:3">
       <c r="B457">
         <v>456</v>
       </c>
@@ -7270,7 +7242,7 @@
         <v>0.66964842777072697</v>
       </c>
     </row>
-    <row r="458" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="458" spans="2:3">
       <c r="B458">
         <v>457</v>
       </c>
@@ -7278,7 +7250,7 @@
         <v>0.69597018597813098</v>
       </c>
     </row>
-    <row r="459" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="459" spans="2:3">
       <c r="B459">
         <v>458</v>
       </c>
@@ -7286,7 +7258,7 @@
         <v>0.69762612639697497</v>
       </c>
     </row>
-    <row r="460" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="460" spans="2:3">
       <c r="B460">
         <v>459</v>
       </c>
@@ -7294,7 +7266,7 @@
         <v>0.79804933397211997</v>
       </c>
     </row>
-    <row r="461" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="461" spans="2:3">
       <c r="B461">
         <v>460</v>
       </c>
@@ -7302,7 +7274,7 @@
         <v>0.848449547214287</v>
       </c>
     </row>
-    <row r="462" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="462" spans="2:3">
       <c r="B462">
         <v>461</v>
       </c>
@@ -7310,7 +7282,7 @@
         <v>0.77336179080485001</v>
       </c>
     </row>
-    <row r="463" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="463" spans="2:3">
       <c r="B463">
         <v>462</v>
       </c>
@@ -7318,7 +7290,7 @@
         <v>0.89409882947818997</v>
       </c>
     </row>
-    <row r="464" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="464" spans="2:3">
       <c r="B464">
         <v>463</v>
       </c>
@@ -7326,7 +7298,7 @@
         <v>0.92210704703901603</v>
       </c>
     </row>
-    <row r="465" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="465" spans="2:3">
       <c r="B465">
         <v>464</v>
       </c>
@@ -7334,7 +7306,7 @@
         <v>0.80068085592456195</v>
       </c>
     </row>
-    <row r="466" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="466" spans="2:3">
       <c r="B466">
         <v>465</v>
       </c>
@@ -7342,7 +7314,7 @@
         <v>0.915324954023925</v>
       </c>
     </row>
-    <row r="467" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="467" spans="2:3">
       <c r="B467">
         <v>466</v>
       </c>
@@ -7350,7 +7322,7 @@
         <v>0.99942254931455698</v>
       </c>
     </row>
-    <row r="468" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="468" spans="2:3">
       <c r="B468">
         <v>467</v>
       </c>
@@ -7358,7 +7330,7 @@
         <v>1.01218332278905</v>
       </c>
     </row>
-    <row r="469" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="469" spans="2:3">
       <c r="B469">
         <v>468</v>
       </c>
@@ -7366,7 +7338,7 @@
         <v>0.90690285183143504</v>
       </c>
     </row>
-    <row r="470" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="470" spans="2:3">
       <c r="B470">
         <v>469</v>
       </c>
@@ -7374,7 +7346,7 @@
         <v>0.91518198431100495</v>
       </c>
     </row>
-    <row r="471" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="471" spans="2:3">
       <c r="B471">
         <v>470</v>
       </c>
@@ -7382,7 +7354,7 @@
         <v>0.90824677969151102</v>
       </c>
     </row>
-    <row r="472" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="472" spans="2:3">
       <c r="B472">
         <v>471</v>
       </c>
@@ -7390,7 +7362,7 @@
         <v>0.91699118878089703</v>
       </c>
     </row>
-    <row r="473" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="473" spans="2:3">
       <c r="B473">
         <v>472</v>
       </c>
@@ -7398,7 +7370,7 @@
         <v>0.95591774983797695</v>
       </c>
     </row>
-    <row r="474" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="474" spans="2:3">
       <c r="B474">
         <v>473</v>
       </c>
@@ -7406,7 +7378,7 @@
         <v>0.94260033927699405</v>
       </c>
     </row>
-    <row r="475" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="475" spans="2:3">
       <c r="B475">
         <v>474</v>
       </c>
@@ -7414,7 +7386,7 @@
         <v>1.0935204007360899</v>
       </c>
     </row>
-    <row r="476" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="476" spans="2:3">
       <c r="B476">
         <v>475</v>
       </c>
@@ -7422,7 +7394,7 @@
         <v>0.99879361566514402</v>
       </c>
     </row>
-    <row r="477" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="477" spans="2:3">
       <c r="B477">
         <v>476</v>
       </c>
@@ -7430,7 +7402,7 @@
         <v>1.06021737937839</v>
       </c>
     </row>
-    <row r="478" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="478" spans="2:3">
       <c r="B478">
         <v>477</v>
       </c>
@@ -7438,7 +7410,7 @@
         <v>1.0476370986733301</v>
       </c>
     </row>
-    <row r="479" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="479" spans="2:3">
       <c r="B479">
         <v>478</v>
       </c>
@@ -7446,7 +7418,7 @@
         <v>1.0789264980019799</v>
       </c>
     </row>
-    <row r="480" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="480" spans="2:3">
       <c r="B480">
         <v>479</v>
       </c>
@@ -7454,7 +7426,7 @@
         <v>0.99355261856732502</v>
       </c>
     </row>
-    <row r="481" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:3">
       <c r="B481">
         <v>480</v>
       </c>
@@ -7462,7 +7434,7 @@
         <v>1.0038151997796201</v>
       </c>
     </row>
-    <row r="482" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="482" spans="2:3">
       <c r="B482">
         <v>481</v>
       </c>
@@ -7470,7 +7442,7 @@
         <v>0.94523231297250399</v>
       </c>
     </row>
-    <row r="483" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="483" spans="2:3">
       <c r="B483">
         <v>482</v>
       </c>
@@ -7478,7 +7450,7 @@
         <v>0.88377339073262695</v>
       </c>
     </row>
-    <row r="484" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="484" spans="2:3">
       <c r="B484">
         <v>483</v>
       </c>
@@ -7486,7 +7458,7 @@
         <v>0.91245028005217499</v>
       </c>
     </row>
-    <row r="485" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="485" spans="2:3">
       <c r="B485">
         <v>484</v>
       </c>
@@ -7494,7 +7466,7 @@
         <v>0.88814413348169896</v>
       </c>
     </row>
-    <row r="486" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="486" spans="2:3">
       <c r="B486">
         <v>485</v>
       </c>
@@ -7502,7 +7474,7 @@
         <v>0.87403342106726001</v>
       </c>
     </row>
-    <row r="487" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="487" spans="2:3">
       <c r="B487">
         <v>486</v>
       </c>
@@ -7510,7 +7482,7 @@
         <v>0.81874757424723299</v>
       </c>
     </row>
-    <row r="488" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="488" spans="2:3">
       <c r="B488">
         <v>487</v>
       </c>
@@ -7518,7 +7490,7 @@
         <v>0.84197541786772601</v>
       </c>
     </row>
-    <row r="489" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="489" spans="2:3">
       <c r="B489">
         <v>488</v>
       </c>
@@ -7526,7 +7498,7 @@
         <v>0.80395141532396897</v>
       </c>
     </row>
-    <row r="490" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="490" spans="2:3">
       <c r="B490">
         <v>489</v>
       </c>
@@ -7534,7 +7506,7 @@
         <v>0.89599588192346502</v>
       </c>
     </row>
-    <row r="491" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="491" spans="2:3">
       <c r="B491">
         <v>490</v>
       </c>
@@ -7542,7 +7514,7 @@
         <v>0.84914978089015503</v>
       </c>
     </row>
-    <row r="492" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="492" spans="2:3">
       <c r="B492">
         <v>491</v>
       </c>
@@ -7550,7 +7522,7 @@
         <v>0.72229382229761296</v>
       </c>
     </row>
-    <row r="493" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="493" spans="2:3">
       <c r="B493">
         <v>492</v>
       </c>
@@ -7558,7 +7530,7 @@
         <v>0.79524522581873003</v>
       </c>
     </row>
-    <row r="494" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="494" spans="2:3">
       <c r="B494">
         <v>493</v>
       </c>
@@ -7566,7 +7538,7 @@
         <v>0.69906931187905696</v>
       </c>
     </row>
-    <row r="495" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="495" spans="2:3">
       <c r="B495">
         <v>494</v>
       </c>
@@ -7574,7 +7546,7 @@
         <v>0.77749804452036397</v>
       </c>
     </row>
-    <row r="496" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="496" spans="2:3">
       <c r="B496">
         <v>495</v>
       </c>
@@ -7582,7 +7554,7 @@
         <v>0.58489505486985904</v>
       </c>
     </row>
-    <row r="497" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="497" spans="2:3">
       <c r="B497">
         <v>496</v>
       </c>
@@ -7590,7 +7562,7 @@
         <v>0.574763377645373</v>
       </c>
     </row>
-    <row r="498" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="498" spans="2:3">
       <c r="B498">
         <v>497</v>
       </c>
@@ -7598,7 +7570,7 @@
         <v>0.66575844237345105</v>
       </c>
     </row>
-    <row r="499" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="499" spans="2:3">
       <c r="B499">
         <v>498</v>
       </c>
@@ -7606,7 +7578,7 @@
         <v>0.63829381750828795</v>
       </c>
     </row>
-    <row r="500" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="500" spans="2:3">
       <c r="B500">
         <v>499</v>
       </c>
@@ -7614,7 +7586,7 @@
         <v>0.487903377492301</v>
       </c>
     </row>
-    <row r="501" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="501" spans="2:3">
       <c r="B501">
         <v>500</v>
       </c>
@@ -7622,7 +7594,7 @@
         <v>0.53748544116992503</v>
       </c>
     </row>
-    <row r="502" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="502" spans="2:3">
       <c r="B502">
         <v>501</v>
       </c>
@@ -7630,7 +7602,7 @@
         <v>0.42648615045271998</v>
       </c>
     </row>
-    <row r="503" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="503" spans="2:3">
       <c r="B503">
         <v>502</v>
       </c>
@@ -7638,7 +7610,7 @@
         <v>0.33994698185400002</v>
       </c>
     </row>
-    <row r="504" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="504" spans="2:3">
       <c r="B504">
         <v>503</v>
       </c>
@@ -7646,7 +7618,7 @@
         <v>0.35907607394839097</v>
       </c>
     </row>
-    <row r="505" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="505" spans="2:3">
       <c r="B505">
         <v>504</v>
       </c>
@@ -7654,7 +7626,7 @@
         <v>0.248031819362029</v>
       </c>
     </row>
-    <row r="506" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="506" spans="2:3">
       <c r="B506">
         <v>505</v>
       </c>
@@ -7662,7 +7634,7 @@
         <v>0.386078075624887</v>
       </c>
     </row>
-    <row r="507" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:3">
       <c r="B507">
         <v>506</v>
       </c>
@@ -7670,7 +7642,7 @@
         <v>0.29559281764885298</v>
       </c>
     </row>
-    <row r="508" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="508" spans="2:3">
       <c r="B508">
         <v>507</v>
       </c>
@@ -7678,7 +7650,7 @@
         <v>0.24251065459725801</v>
       </c>
     </row>
-    <row r="509" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="509" spans="2:3">
       <c r="B509">
         <v>508</v>
       </c>
@@ -7686,7 +7658,7 @@
         <v>0.119383936815273</v>
       </c>
     </row>
-    <row r="510" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="510" spans="2:3">
       <c r="B510">
         <v>509</v>
       </c>
@@ -7694,7 +7666,7 @@
         <v>0.13759493254715</v>
       </c>
     </row>
-    <row r="511" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="511" spans="2:3">
       <c r="B511">
         <v>510</v>
       </c>
@@ -7702,7 +7674,7 @@
         <v>0.1436966073307</v>
       </c>
     </row>
-    <row r="512" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="512" spans="2:3">
       <c r="B512">
         <v>511</v>
       </c>
@@ -7710,7 +7682,7 @@
         <v>-2.97006672276716E-2</v>
       </c>
     </row>
-    <row r="513" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="513" spans="2:3">
       <c r="B513">
         <v>512</v>
       </c>
@@ -7725,24 +7697,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
